--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\git\nf_reqextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4CCAD8-88F9-4702-BFC8-3BDE7CB43F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A10596-EE2F-4585-A54D-908000C55200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EC085558-F660-44D9-8D61-E2A64C91A3B9}"/>
   </bookViews>
@@ -770,15 +770,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,6 +912,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,37 +1261,37 @@
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="19" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="56"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
@@ -1328,16 +1328,16 @@
       <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5">
         <v>255</v>
       </c>
@@ -1374,17 +1374,17 @@
       <c r="Q3" s="8">
         <v>67</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="50">
         <f>SUM(F3:Q3)</f>
         <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1395,145 +1395,145 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="42">
         <v>150</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="44">
         <v>600</v>
       </c>
-      <c r="F7" s="48">
-        <v>1</v>
-      </c>
-      <c r="G7" s="49">
-        <v>1</v>
-      </c>
-      <c r="H7" s="49">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49">
-        <v>1</v>
-      </c>
-      <c r="J7" s="49">
-        <v>1</v>
-      </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0</v>
-      </c>
-      <c r="M7" s="49">
-        <v>1</v>
-      </c>
-      <c r="N7" s="49">
-        <v>0</v>
-      </c>
-      <c r="O7" s="49">
-        <v>0</v>
-      </c>
-      <c r="P7" s="49">
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0</v>
+      </c>
+      <c r="M7" s="46">
+        <v>1</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0</v>
+      </c>
+      <c r="O7" s="46">
+        <v>0</v>
+      </c>
+      <c r="P7" s="46">
         <v>2</v>
       </c>
-      <c r="Q7" s="50">
-        <v>0</v>
-      </c>
-      <c r="R7" s="29">
+      <c r="Q7" s="47">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
         <f>(SUM(F7:Q7))</f>
         <v>7</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="D8" s="10">
         <v>250</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>600</v>
       </c>
       <c r="F8" s="2">
@@ -1587,10 +1587,10 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="26">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
         <f t="shared" ref="R8:R14" si="0">(SUM(F8:Q8))</f>
         <v>8</v>
       </c>
@@ -1608,217 +1608,217 @@
       <c r="D9" s="13">
         <v>350</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>600</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>2</v>
       </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <v>2</v>
       </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
-        <v>1</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
         <v>2</v>
       </c>
-      <c r="Q9" s="27">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="64">
         <v>150</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>600</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="67">
         <v>2</v>
       </c>
-      <c r="G10" s="71">
-        <v>0</v>
-      </c>
-      <c r="H10" s="71">
-        <v>0</v>
-      </c>
-      <c r="I10" s="71">
-        <v>0</v>
-      </c>
-      <c r="J10" s="71">
-        <v>0</v>
-      </c>
-      <c r="K10" s="71">
-        <v>0</v>
-      </c>
-      <c r="L10" s="71">
-        <v>0</v>
-      </c>
-      <c r="M10" s="71">
-        <v>0</v>
-      </c>
-      <c r="N10" s="71">
-        <v>0</v>
-      </c>
-      <c r="O10" s="71">
-        <v>0</v>
-      </c>
-      <c r="P10" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="72">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
+      <c r="G10" s="68">
+        <v>0</v>
+      </c>
+      <c r="H10" s="68">
+        <v>0</v>
+      </c>
+      <c r="I10" s="68">
+        <v>0</v>
+      </c>
+      <c r="J10" s="68">
+        <v>0</v>
+      </c>
+      <c r="K10" s="68">
+        <v>0</v>
+      </c>
+      <c r="L10" s="68">
+        <v>0</v>
+      </c>
+      <c r="M10" s="68">
+        <v>0</v>
+      </c>
+      <c r="N10" s="68">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
+        <v>0</v>
+      </c>
+      <c r="P10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="69">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="56">
         <v>250</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <v>600</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="59">
         <v>2</v>
       </c>
-      <c r="G11" s="63">
-        <v>0</v>
-      </c>
-      <c r="H11" s="63">
-        <v>0</v>
-      </c>
-      <c r="I11" s="63">
-        <v>0</v>
-      </c>
-      <c r="J11" s="63">
-        <v>0</v>
-      </c>
-      <c r="K11" s="63">
-        <v>0</v>
-      </c>
-      <c r="L11" s="63">
-        <v>0</v>
-      </c>
-      <c r="M11" s="63">
-        <v>0</v>
-      </c>
-      <c r="N11" s="63">
-        <v>0</v>
-      </c>
-      <c r="O11" s="63">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="64">
-        <v>0</v>
-      </c>
-      <c r="R11" s="65">
+      <c r="G11" s="60">
+        <v>0</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>0</v>
+      </c>
+      <c r="R11" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="42">
         <v>100</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="43">
         <v>600</v>
       </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="49">
-        <v>1</v>
-      </c>
-      <c r="H12" s="49">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49">
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="46">
+        <v>1</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="46">
         <v>2</v>
       </c>
-      <c r="K12" s="49">
-        <v>0</v>
-      </c>
-      <c r="L12" s="49">
-        <v>0</v>
-      </c>
-      <c r="M12" s="49">
-        <v>0</v>
-      </c>
-      <c r="N12" s="49">
-        <v>0</v>
-      </c>
-      <c r="O12" s="49">
-        <v>0</v>
-      </c>
-      <c r="P12" s="49">
+      <c r="K12" s="46">
+        <v>0</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0</v>
+      </c>
+      <c r="O12" s="46">
+        <v>0</v>
+      </c>
+      <c r="P12" s="46">
         <v>2</v>
       </c>
-      <c r="Q12" s="50">
-        <v>0</v>
-      </c>
-      <c r="R12" s="29">
+      <c r="Q12" s="47">
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1872,10 +1872,10 @@
       <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="26">
-        <v>1</v>
-      </c>
-      <c r="R13" s="30">
+      <c r="Q13" s="23">
+        <v>1</v>
+      </c>
+      <c r="R13" s="27">
         <f t="shared" ref="R13" si="1">(SUM(F13:Q13))</f>
         <v>10</v>
       </c>
@@ -1896,178 +1896,178 @@
       <c r="E14" s="14">
         <v>600</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>2</v>
       </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>1</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22">
         <v>2</v>
       </c>
-      <c r="K14" s="25">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>0</v>
-      </c>
-      <c r="P14" s="25">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
         <v>2</v>
       </c>
-      <c r="Q14" s="27">
-        <v>1</v>
-      </c>
-      <c r="R14" s="31">
+      <c r="Q14" s="24">
+        <v>1</v>
+      </c>
+      <c r="R14" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="51" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="50">
         <f>AVERAGE(R7:R14)</f>
         <v>6.375</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="19" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="54"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="32">
-        <f>AVERAGE(F7:F14)/2*100</f>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29">
+        <f t="shared" ref="F17:Q17" si="2">AVERAGE(F7:F14)/2*100</f>
         <v>81.25</v>
       </c>
-      <c r="G17" s="32">
-        <f>AVERAGE(G7:G14)/2*100</f>
+      <c r="G17" s="29">
+        <f t="shared" si="2"/>
         <v>31.25</v>
       </c>
-      <c r="H17" s="32">
-        <f>AVERAGE(H7:H14)/2*100</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="32">
-        <f>AVERAGE(I7:I14)/2*100</f>
+      <c r="H17" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J17" s="32">
-        <f>AVERAGE(J7:J14)/2*100</f>
+      <c r="J17" s="29">
+        <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="K17" s="32">
-        <f>AVERAGE(K7:K14)/2*100</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="32">
-        <f>AVERAGE(L7:L14)/2*100</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <f>AVERAGE(M7:M14)/2*100</f>
+      <c r="K17" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
+        <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
-      <c r="N17" s="32">
-        <f>AVERAGE(N7:N14)/2*100</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <f>AVERAGE(O7:O14)/2*100</f>
+      <c r="N17" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="P17" s="32">
-        <f>AVERAGE(P7:P14)/2*100</f>
+      <c r="P17" s="29">
+        <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="Q17" s="52">
-        <f>AVERAGE(Q7:Q14)/2*100</f>
+      <c r="Q17" s="49">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="50">
         <f>SUM(F17:Q17)</f>
         <v>318.75</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="53">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="50">
         <f>AVERAGE(F17:Q17)</f>
         <v>26.5625</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R19" s="55"/>
+      <c r="R19" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\git\nf_reqextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A10596-EE2F-4585-A54D-908000C55200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC2E49-F651-468B-832B-8500D1E458E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EC085558-F660-44D9-8D61-E2A64C91A3B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>loss</t>
   </si>
@@ -165,13 +165,28 @@
   </si>
   <si>
     <t>average percentage of success on the prediction of all tests</t>
+  </si>
+  <si>
+    <t>occurrence of categories of software requirements and specifications dataset (requirements_v0_0_1.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>main_v0_0_1</t>
+  </si>
+  <si>
+    <t>main_v0_0_2</t>
+  </si>
+  <si>
+    <t>TOTAL /16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +217,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +263,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -695,6 +730,26 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -702,13 +757,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -718,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,8 +779,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,8 +854,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,20 +900,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,7 +942,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,7 +951,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,6 +962,80 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE16F68-CDB6-4331-8858-0654CB9651F9}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,297 +1376,299 @@
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="53"/>
+      <c r="A1" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="75"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="15" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="5">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="3">
         <v>255</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>21</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>10</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>13</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>38</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>17</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>62</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>54</v>
       </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
         <v>21</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>66</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>67</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="45">
         <f>SUM(F3:Q3)</f>
         <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="74"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="72"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="A6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="38">
         <v>150</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="40">
         <v>600</v>
       </c>
-      <c r="F7" s="45">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46">
-        <v>1</v>
-      </c>
-      <c r="J7" s="46">
-        <v>1</v>
-      </c>
-      <c r="K7" s="46">
-        <v>0</v>
-      </c>
-      <c r="L7" s="46">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46">
-        <v>1</v>
-      </c>
-      <c r="N7" s="46">
-        <v>0</v>
-      </c>
-      <c r="O7" s="46">
-        <v>0</v>
-      </c>
-      <c r="P7" s="46">
+      <c r="F7" s="41">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1</v>
+      </c>
+      <c r="J7" s="42">
+        <v>1</v>
+      </c>
+      <c r="K7" s="42">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0</v>
+      </c>
+      <c r="M7" s="42">
+        <v>1</v>
+      </c>
+      <c r="N7" s="42">
+        <v>0</v>
+      </c>
+      <c r="O7" s="42">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
         <v>2</v>
       </c>
-      <c r="Q7" s="47">
-        <v>0</v>
-      </c>
-      <c r="R7" s="26">
+      <c r="Q7" s="43">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24">
         <f>(SUM(F7:Q7))</f>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>250</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>600</v>
       </c>
       <c r="F8" s="2">
@@ -1587,256 +1704,256 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="23">
-        <v>0</v>
-      </c>
-      <c r="R8" s="27">
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
         <f t="shared" ref="R8:R14" si="0">(SUM(F8:Q8))</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>350</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>600</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
         <v>2</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
         <v>2</v>
       </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="28">
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="56">
         <v>150</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="58">
         <v>600</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="59">
         <v>2</v>
       </c>
-      <c r="G10" s="68">
-        <v>0</v>
-      </c>
-      <c r="H10" s="68">
-        <v>0</v>
-      </c>
-      <c r="I10" s="68">
-        <v>0</v>
-      </c>
-      <c r="J10" s="68">
-        <v>0</v>
-      </c>
-      <c r="K10" s="68">
-        <v>0</v>
-      </c>
-      <c r="L10" s="68">
-        <v>0</v>
-      </c>
-      <c r="M10" s="68">
-        <v>0</v>
-      </c>
-      <c r="N10" s="68">
-        <v>0</v>
-      </c>
-      <c r="O10" s="68">
-        <v>0</v>
-      </c>
-      <c r="P10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="69">
-        <v>0</v>
-      </c>
-      <c r="R10" s="29">
+      <c r="G10" s="60">
+        <v>0</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0</v>
+      </c>
+      <c r="P10" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="61">
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="48">
         <v>250</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="50">
         <v>600</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="51">
         <v>2</v>
       </c>
-      <c r="G11" s="60">
-        <v>0</v>
-      </c>
-      <c r="H11" s="60">
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
-        <v>0</v>
-      </c>
-      <c r="J11" s="60">
-        <v>0</v>
-      </c>
-      <c r="K11" s="60">
-        <v>0</v>
-      </c>
-      <c r="L11" s="60">
-        <v>0</v>
-      </c>
-      <c r="M11" s="60">
-        <v>0</v>
-      </c>
-      <c r="N11" s="60">
-        <v>0</v>
-      </c>
-      <c r="O11" s="60">
-        <v>0</v>
-      </c>
-      <c r="P11" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="61">
-        <v>0</v>
-      </c>
-      <c r="R11" s="62">
+      <c r="G11" s="52">
+        <v>0</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <v>0</v>
+      </c>
+      <c r="J11" s="52">
+        <v>0</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0</v>
+      </c>
+      <c r="M11" s="52">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52">
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <v>0</v>
+      </c>
+      <c r="P11" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="53">
+        <v>0</v>
+      </c>
+      <c r="R11" s="54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <v>100</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <v>600</v>
       </c>
-      <c r="F12" s="46">
-        <v>1</v>
-      </c>
-      <c r="G12" s="46">
-        <v>1</v>
-      </c>
-      <c r="H12" s="46">
-        <v>0</v>
-      </c>
-      <c r="I12" s="46">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46">
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
         <v>2</v>
       </c>
-      <c r="K12" s="46">
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
-        <v>0</v>
-      </c>
-      <c r="M12" s="46">
-        <v>0</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0</v>
-      </c>
-      <c r="O12" s="46">
-        <v>0</v>
-      </c>
-      <c r="P12" s="46">
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0</v>
+      </c>
+      <c r="P12" s="42">
         <v>2</v>
       </c>
-      <c r="Q12" s="47">
-        <v>0</v>
-      </c>
-      <c r="R12" s="26">
+      <c r="Q12" s="43">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>150</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>600</v>
       </c>
       <c r="F13" s="1">
@@ -1872,205 +1989,948 @@
       <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="23">
-        <v>1</v>
-      </c>
-      <c r="R13" s="27">
+      <c r="Q13" s="21">
+        <v>1</v>
+      </c>
+      <c r="R13" s="25">
         <f t="shared" ref="R13" si="1">(SUM(F13:Q13))</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>250</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>600</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
         <v>2</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
         <v>2</v>
       </c>
-      <c r="Q14" s="24">
-        <v>1</v>
-      </c>
-      <c r="R14" s="28">
+      <c r="Q14" s="20">
+        <v>1</v>
+      </c>
+      <c r="R14" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="50">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="45">
         <f>AVERAGE(R7:R14)</f>
         <v>6.375</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="70" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="51"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="76"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="27">
         <f t="shared" ref="F17:Q17" si="2">AVERAGE(F7:F14)/2*100</f>
         <v>81.25</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>31.25</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="27">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="27">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="44">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="45">
         <f>SUM(F17:Q17)</f>
         <v>318.75</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="50">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="45">
         <f>AVERAGE(F17:Q17)</f>
         <v>26.5625</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R19" s="52"/>
+    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="73"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="65"/>
+      <c r="I20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="3">
+        <v>255</v>
+      </c>
+      <c r="G21" s="5">
+        <v>21</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="5">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4">
+        <v>38</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="5">
+        <v>54</v>
+      </c>
+      <c r="N21" s="66"/>
+      <c r="O21" s="5">
+        <v>21</v>
+      </c>
+      <c r="P21" s="4">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>67</v>
+      </c>
+      <c r="R21" s="45">
+        <f>SUM(F21:Q21)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="74"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="38">
+        <v>150</v>
+      </c>
+      <c r="E25" s="40">
+        <v>535</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="42">
+        <v>1</v>
+      </c>
+      <c r="H25" s="81">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42">
+        <v>1</v>
+      </c>
+      <c r="J25" s="42">
+        <v>2</v>
+      </c>
+      <c r="K25" s="81">
+        <v>0</v>
+      </c>
+      <c r="L25" s="81">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
+      <c r="N25" s="81">
+        <v>0</v>
+      </c>
+      <c r="O25" s="42">
+        <v>0</v>
+      </c>
+      <c r="P25" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>1</v>
+      </c>
+      <c r="R25" s="24">
+        <f>(SUM(F25:Q25))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8">
+        <v>250</v>
+      </c>
+      <c r="E26" s="17">
+        <v>535</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="82">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0</v>
+      </c>
+      <c r="L26" s="82">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="82">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>1</v>
+      </c>
+      <c r="R26" s="25">
+        <f t="shared" ref="R26:R32" si="3">(SUM(F26:Q26))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11">
+        <v>350</v>
+      </c>
+      <c r="E27" s="18">
+        <v>535</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="83">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0</v>
+      </c>
+      <c r="K27" s="83">
+        <v>0</v>
+      </c>
+      <c r="L27" s="83">
+        <v>0</v>
+      </c>
+      <c r="M27" s="20">
+        <v>1</v>
+      </c>
+      <c r="N27" s="83">
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <v>1</v>
+      </c>
+      <c r="P27" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>0</v>
+      </c>
+      <c r="R27" s="26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="56">
+        <v>150</v>
+      </c>
+      <c r="E28" s="58">
+        <v>535</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84">
+        <v>0</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84">
+        <v>0</v>
+      </c>
+      <c r="L28" s="84">
+        <v>0</v>
+      </c>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84">
+        <v>0</v>
+      </c>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="87"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="48">
+        <v>250</v>
+      </c>
+      <c r="E29" s="50">
+        <v>535</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85">
+        <v>0</v>
+      </c>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85">
+        <v>0</v>
+      </c>
+      <c r="L29" s="85">
+        <v>0</v>
+      </c>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85">
+        <v>0</v>
+      </c>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="38">
+        <v>100</v>
+      </c>
+      <c r="E30" s="39">
+        <v>535</v>
+      </c>
+      <c r="F30" s="42">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42">
+        <v>1</v>
+      </c>
+      <c r="H30" s="81">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42">
+        <v>0</v>
+      </c>
+      <c r="J30" s="42">
+        <v>2</v>
+      </c>
+      <c r="K30" s="81">
+        <v>0</v>
+      </c>
+      <c r="L30" s="81">
+        <v>0</v>
+      </c>
+      <c r="M30" s="42">
+        <v>0</v>
+      </c>
+      <c r="N30" s="81">
+        <v>0</v>
+      </c>
+      <c r="O30" s="42">
+        <v>1</v>
+      </c>
+      <c r="P30" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>0</v>
+      </c>
+      <c r="R30" s="24">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="8">
+        <v>150</v>
+      </c>
+      <c r="E31" s="9">
+        <v>535</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="82">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="82">
+        <v>0</v>
+      </c>
+      <c r="L31" s="82">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="82">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>0</v>
+      </c>
+      <c r="R31" s="25">
+        <f t="shared" ref="R31" si="4">(SUM(F31:Q31))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11">
+        <v>250</v>
+      </c>
+      <c r="E32" s="12">
+        <v>535</v>
+      </c>
+      <c r="F32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="83">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20">
+        <v>2</v>
+      </c>
+      <c r="K32" s="83">
+        <v>0</v>
+      </c>
+      <c r="L32" s="83">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
+        <v>1</v>
+      </c>
+      <c r="N32" s="83">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20">
+        <v>0</v>
+      </c>
+      <c r="P32" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>1</v>
+      </c>
+      <c r="R32" s="26">
+        <f t="shared" ref="R32:R36" si="5">(SUM(F32:Q32))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="45">
+        <f>AVERAGE(R25:R32)</f>
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="76"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="27">
+        <f t="shared" ref="F35:Q35" si="6">AVERAGE(F25:F32)/2*100</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H35" s="87"/>
+      <c r="I35" s="27">
+        <f t="shared" si="6"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="J35" s="27">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="27">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="N35" s="87"/>
+      <c r="O35" s="27">
+        <f t="shared" si="6"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="6"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="Q35" s="44">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="R35" s="45">
+        <f>SUM(F35:Q35)</f>
+        <v>391.66666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="45">
+        <f>AVERAGE(F35:Q35)</f>
+        <v>48.958333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:R23"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -2078,7 +2938,7 @@
     <mergeCell ref="F16:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:Q14">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2090,6 +2950,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:Q17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:G32 O25:Q32 M25:M32 I25:J32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2101,7 +2997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:Q17">
+  <conditionalFormatting sqref="F35:Q35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\git\nf_reqextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC2E49-F651-468B-832B-8500D1E458E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364330D0-660F-4E27-A6AE-94F84213EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EC085558-F660-44D9-8D61-E2A64C91A3B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
   <si>
     <t>loss</t>
   </si>
@@ -170,9 +170,6 @@
     <t>occurrence of categories of software requirements and specifications dataset (requirements_v0_0_1.csv)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>main_v0_0_1</t>
   </si>
   <si>
@@ -180,13 +177,22 @@
   </si>
   <si>
     <t>TOTAL /16</t>
+  </si>
+  <si>
+    <t>main_v0_0_3</t>
+  </si>
+  <si>
+    <t>train_test_split()</t>
+  </si>
+  <si>
+    <t>test_size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,14 +281,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -767,11 +773,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,32 +1074,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -989,18 +1088,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +1122,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE16F68-CDB6-4331-8858-0654CB9651F9}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,11 +1532,11 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1376,39 +1544,39 @@
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="62" t="s">
+      <c r="A1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="75"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1450,11 +1618,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3">
         <v>255</v>
       </c>
@@ -1497,50 +1665,50 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="74"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="62" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
@@ -2055,56 +2223,56 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
       <c r="R15" s="45">
         <f>AVERAGE(R7:R14)</f>
         <v>6.375</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="62" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="76"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="69"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="27">
         <f t="shared" ref="F17:Q17" si="2">AVERAGE(F7:F14)/2*100</f>
         <v>81.25</v>
@@ -2159,786 +2327,1318 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="45">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="93">
         <f>AVERAGE(F17:Q17)</f>
         <v>26.5625</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="97"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="62"/>
+      <c r="O21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="3">
+        <v>255</v>
+      </c>
+      <c r="G22" s="5">
+        <v>21</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="5">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4">
+        <v>38</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="5">
+        <v>54</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="5">
+        <v>21</v>
+      </c>
+      <c r="P22" s="4">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>67</v>
+      </c>
+      <c r="R22" s="45">
+        <f>SUM(F22:Q22)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="100"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="73"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="65"/>
-      <c r="O20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="3">
-        <v>255</v>
-      </c>
-      <c r="G21" s="5">
-        <v>21</v>
-      </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="5">
-        <v>13</v>
-      </c>
-      <c r="J21" s="4">
-        <v>38</v>
-      </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="5">
-        <v>54</v>
-      </c>
-      <c r="N21" s="66"/>
-      <c r="O21" s="5">
-        <v>21</v>
-      </c>
-      <c r="P21" s="4">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>67</v>
-      </c>
-      <c r="R21" s="45">
-        <f>SUM(F21:Q21)</f>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="38">
+        <v>150</v>
+      </c>
+      <c r="E26" s="40">
         <v>535</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="74"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="86" t="s">
+      <c r="F26" s="41">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42">
+        <v>1</v>
+      </c>
+      <c r="H26" s="70">
+        <v>0</v>
+      </c>
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="42">
+        <v>2</v>
+      </c>
+      <c r="K26" s="70">
+        <v>0</v>
+      </c>
+      <c r="L26" s="70">
+        <v>0</v>
+      </c>
+      <c r="M26" s="42">
+        <v>0</v>
+      </c>
+      <c r="N26" s="70">
+        <v>0</v>
+      </c>
+      <c r="O26" s="42">
+        <v>0</v>
+      </c>
+      <c r="P26" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>1</v>
+      </c>
+      <c r="R26" s="24">
+        <f>(SUM(F26:Q26))</f>
         <v>8</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="38">
-        <v>150</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="D27" s="8">
+        <v>250</v>
+      </c>
+      <c r="E27" s="17">
         <v>535</v>
       </c>
-      <c r="F25" s="41">
-        <v>1</v>
-      </c>
-      <c r="G25" s="42">
-        <v>1</v>
-      </c>
-      <c r="H25" s="81">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>1</v>
-      </c>
-      <c r="J25" s="42">
-        <v>2</v>
-      </c>
-      <c r="K25" s="81">
-        <v>0</v>
-      </c>
-      <c r="L25" s="81">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <v>0</v>
-      </c>
-      <c r="N25" s="81">
-        <v>0</v>
-      </c>
-      <c r="O25" s="42">
-        <v>0</v>
-      </c>
-      <c r="P25" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="43">
-        <v>1</v>
-      </c>
-      <c r="R25" s="24">
-        <f>(SUM(F25:Q25))</f>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="71">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="71">
+        <v>0</v>
+      </c>
+      <c r="L27" s="71">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="71">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>1</v>
+      </c>
+      <c r="R27" s="25">
+        <f t="shared" ref="R27:R31" si="3">(SUM(F27:Q27))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="8">
-        <v>250</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D28" s="11">
+        <v>350</v>
+      </c>
+      <c r="E28" s="18">
         <v>535</v>
       </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="82">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="82">
-        <v>0</v>
-      </c>
-      <c r="L26" s="82">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="82">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>1</v>
-      </c>
-      <c r="R26" s="25">
-        <f t="shared" ref="R26:R32" si="3">(SUM(F26:Q26))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11">
-        <v>350</v>
-      </c>
-      <c r="E27" s="18">
-        <v>535</v>
-      </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="83">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="J27" s="20">
-        <v>0</v>
-      </c>
-      <c r="K27" s="83">
-        <v>0</v>
-      </c>
-      <c r="L27" s="83">
-        <v>0</v>
-      </c>
-      <c r="M27" s="20">
-        <v>1</v>
-      </c>
-      <c r="N27" s="83">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20">
-        <v>1</v>
-      </c>
-      <c r="P27" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>0</v>
-      </c>
-      <c r="R27" s="26">
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="72">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0</v>
+      </c>
+      <c r="K28" s="72">
+        <v>0</v>
+      </c>
+      <c r="L28" s="72">
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <v>1</v>
+      </c>
+      <c r="N28" s="72">
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
+        <v>1</v>
+      </c>
+      <c r="P28" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>0</v>
+      </c>
+      <c r="R28" s="26">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B29" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C29" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D29" s="56">
         <v>150</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E29" s="58">
         <v>535</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84">
-        <v>0</v>
-      </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84">
-        <v>0</v>
-      </c>
-      <c r="L28" s="84">
-        <v>0</v>
-      </c>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84">
-        <v>0</v>
-      </c>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="87"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="F29" s="77"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73">
+        <v>0</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73">
+        <v>0</v>
+      </c>
+      <c r="L29" s="73">
+        <v>0</v>
+      </c>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73">
+        <v>0</v>
+      </c>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="76"/>
+    </row>
+    <row r="30" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B30" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C30" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D30" s="48">
         <v>250</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E30" s="50">
         <v>535</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85">
-        <v>0</v>
-      </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85">
-        <v>0</v>
-      </c>
-      <c r="L29" s="85">
-        <v>0</v>
-      </c>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85">
-        <v>0</v>
-      </c>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="F30" s="79"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74">
+        <v>0</v>
+      </c>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74">
+        <v>0</v>
+      </c>
+      <c r="L30" s="74">
+        <v>0</v>
+      </c>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74">
+        <v>0</v>
+      </c>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="81"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B31" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D31" s="38">
         <v>100</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E31" s="39">
         <v>535</v>
       </c>
-      <c r="F30" s="42">
-        <v>1</v>
-      </c>
-      <c r="G30" s="42">
-        <v>1</v>
-      </c>
-      <c r="H30" s="81">
-        <v>0</v>
-      </c>
-      <c r="I30" s="42">
-        <v>0</v>
-      </c>
-      <c r="J30" s="42">
-        <v>2</v>
-      </c>
-      <c r="K30" s="81">
-        <v>0</v>
-      </c>
-      <c r="L30" s="81">
-        <v>0</v>
-      </c>
-      <c r="M30" s="42">
-        <v>0</v>
-      </c>
-      <c r="N30" s="81">
-        <v>0</v>
-      </c>
-      <c r="O30" s="42">
-        <v>1</v>
-      </c>
-      <c r="P30" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="43">
-        <v>0</v>
-      </c>
-      <c r="R30" s="24">
+      <c r="F31" s="42">
+        <v>1</v>
+      </c>
+      <c r="G31" s="42">
+        <v>1</v>
+      </c>
+      <c r="H31" s="70">
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
+        <v>0</v>
+      </c>
+      <c r="J31" s="42">
+        <v>2</v>
+      </c>
+      <c r="K31" s="70">
+        <v>0</v>
+      </c>
+      <c r="L31" s="70">
+        <v>0</v>
+      </c>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="70">
+        <v>0</v>
+      </c>
+      <c r="O31" s="42">
+        <v>1</v>
+      </c>
+      <c r="P31" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="43">
+        <v>0</v>
+      </c>
+      <c r="R31" s="24">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>150</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>535</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="82">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="82">
-        <v>0</v>
-      </c>
-      <c r="L31" s="82">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="82">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0</v>
-      </c>
-      <c r="R31" s="25">
-        <f t="shared" ref="R31" si="4">(SUM(F31:Q31))</f>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="71">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="71">
+        <v>0</v>
+      </c>
+      <c r="L32" s="71">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="71">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>0</v>
+      </c>
+      <c r="R32" s="25">
+        <f t="shared" ref="R32" si="4">(SUM(F32:Q32))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>250</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>535</v>
       </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="83">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20">
-        <v>2</v>
-      </c>
-      <c r="K32" s="83">
-        <v>0</v>
-      </c>
-      <c r="L32" s="83">
-        <v>0</v>
-      </c>
-      <c r="M32" s="20">
-        <v>1</v>
-      </c>
-      <c r="N32" s="83">
-        <v>0</v>
-      </c>
-      <c r="O32" s="20">
-        <v>0</v>
-      </c>
-      <c r="P32" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>1</v>
-      </c>
-      <c r="R32" s="26">
-        <f t="shared" ref="R32:R36" si="5">(SUM(F32:Q32))</f>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="72">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>1</v>
+      </c>
+      <c r="J33" s="20">
+        <v>2</v>
+      </c>
+      <c r="K33" s="72">
+        <v>0</v>
+      </c>
+      <c r="L33" s="72">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <v>1</v>
+      </c>
+      <c r="N33" s="72">
+        <v>0</v>
+      </c>
+      <c r="O33" s="20">
+        <v>0</v>
+      </c>
+      <c r="P33" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>1</v>
+      </c>
+      <c r="R33" s="26">
+        <f t="shared" ref="R33" si="5">(SUM(F33:Q33))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="45">
-        <f>AVERAGE(R25:R32)</f>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="45">
+        <f>AVERAGE(R26:R33)</f>
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="62" t="s">
+    <row r="35" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="76"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="27">
-        <f t="shared" ref="F35:Q35" si="6">AVERAGE(F25:F32)/2*100</f>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="69"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="27">
+        <f t="shared" ref="F36:Q36" si="6">AVERAGE(F26:F33)/2*100</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G36" s="27">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="H35" s="87"/>
-      <c r="I35" s="27">
+      <c r="H36" s="76"/>
+      <c r="I36" s="27">
         <f t="shared" si="6"/>
         <v>41.666666666666671</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J36" s="27">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="27">
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="27">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="N35" s="87"/>
-      <c r="O35" s="27">
+      <c r="N36" s="76"/>
+      <c r="O36" s="27">
         <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P36" s="27">
         <f t="shared" si="6"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q36" s="44">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="R35" s="45">
-        <f>SUM(F35:Q35)</f>
+      <c r="R36" s="45">
+        <f>SUM(F36:Q36)</f>
         <v>391.66666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="45">
-        <f>AVERAGE(F35:Q35)</f>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="93">
+        <f>AVERAGE(F36:Q36)</f>
         <v>48.958333333333329</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P38" t="s">
-        <v>44</v>
-      </c>
+    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="97"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="3">
+        <v>255</v>
+      </c>
+      <c r="H41" s="5">
+        <v>21</v>
+      </c>
+      <c r="I41" s="3">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5">
+        <v>38</v>
+      </c>
+      <c r="K41" s="3">
+        <v>54</v>
+      </c>
+      <c r="L41" s="5">
+        <v>21</v>
+      </c>
+      <c r="M41" s="3">
+        <v>66</v>
+      </c>
+      <c r="N41" s="5">
+        <v>67</v>
+      </c>
+      <c r="O41" s="45">
+        <f>SUM(G41:N41)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="100"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="85"/>
+      <c r="F43" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="82"/>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" s="109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="8">
+        <v>150</v>
+      </c>
+      <c r="E45" s="9">
+        <v>535</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="N45" s="21">
+        <v>1</v>
+      </c>
+      <c r="O45" s="25">
+        <f>(SUM(G45:N45))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="8">
+        <v>250</v>
+      </c>
+      <c r="E46" s="9">
+        <v>535</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="21">
+        <v>1</v>
+      </c>
+      <c r="O46" s="25">
+        <f>(SUM(G46:N46))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="8">
+        <v>250</v>
+      </c>
+      <c r="E47" s="9">
+        <v>535</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2</v>
+      </c>
+      <c r="N47" s="21">
+        <v>0</v>
+      </c>
+      <c r="O47" s="25">
+        <f>(SUM(G47:N47))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="8">
+        <v>250</v>
+      </c>
+      <c r="E48" s="9">
+        <v>535</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+      <c r="N48" s="21">
+        <v>1</v>
+      </c>
+      <c r="O48" s="25">
+        <f>(SUM(G48:N48))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="8">
+        <v>250</v>
+      </c>
+      <c r="E49" s="9">
+        <v>535</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="21">
+        <v>0</v>
+      </c>
+      <c r="O49" s="25">
+        <f>(SUM(G49:N49))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="45">
+        <f>AVERAGE(O45:O49)</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="69"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="27">
+        <f>AVERAGE(G45:G49)/2*100</f>
+        <v>40</v>
+      </c>
+      <c r="H52" s="27">
+        <f>AVERAGE(H45:H49)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="I52" s="27">
+        <f>AVERAGE(I45:I49)/2*100</f>
+        <v>40</v>
+      </c>
+      <c r="J52" s="27">
+        <f>AVERAGE(J45:J49)/2*100</f>
+        <v>90</v>
+      </c>
+      <c r="K52" s="27">
+        <f>AVERAGE(K45:K49)/2*100</f>
+        <v>30</v>
+      </c>
+      <c r="L52" s="27">
+        <f>AVERAGE(L45:L49)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="M52" s="27">
+        <f>AVERAGE(M45:M49)/2*100</f>
+        <v>100</v>
+      </c>
+      <c r="N52" s="44">
+        <f>AVERAGE(N45:N49)/2*100</f>
+        <v>30</v>
+      </c>
+      <c r="O52" s="45">
+        <f>SUM(G52:N52)</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="92"/>
+      <c r="N53" s="92"/>
+      <c r="O53" s="93">
+        <f>AVERAGE(G52:N52)</f>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="28"/>
+      <c r="R54"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F34:Q34"/>
-    <mergeCell ref="F19:Q19"/>
+  <mergeCells count="18">
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="A39:F42"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F20:Q20"/>
     <mergeCell ref="A1:E4"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="A20:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:R24"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="F16:Q16"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:Q14">
-    <cfRule type="colorScale" priority="7">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="F7:Q14 G45:N49">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2950,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R14">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2962,7 +3662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:Q17">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2973,8 +3673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G32 O25:Q32 M25:M32 I25:J32">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F26:G33 O26:Q33 M26:M33 I26:J33">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2985,8 +3685,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R32">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="R26:R33">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2997,8 +3697,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:Q35">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F36:Q36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:N52">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:O49">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\git\nf_reqextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364330D0-660F-4E27-A6AE-94F84213EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A5CC0-5231-4DCC-B7D2-61A81313F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EC085558-F660-44D9-8D61-E2A64C91A3B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
   <si>
     <t>loss</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>test_size</t>
+  </si>
+  <si>
+    <t>main_v0_1_1 (SENTENCE)</t>
+  </si>
+  <si>
+    <t>main_v0_1_1 (SYNTAX)</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,52 +1133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,13 +1163,49 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE16F68-CDB6-4331-8858-0654CB9651F9}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,35 +1551,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="83" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="85"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100"/>
       <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1618,11 +1621,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="3">
         <v>255</v>
       </c>
@@ -1665,11 +1668,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="65"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -1685,30 +1688,30 @@
       <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="85"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="100"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
@@ -2251,20 +2254,20 @@
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="85"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
       <c r="R16" s="69"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2327,59 +2330,59 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="93">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="86">
         <f>AVERAGE(F17:Q17)</f>
         <v>26.5625</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="83" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="97"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="87"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="87"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="13" t="s">
         <v>9</v>
       </c>
@@ -2413,11 +2416,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="3">
         <v>255</v>
       </c>
@@ -2452,11 +2455,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="65"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -2467,35 +2470,35 @@
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
@@ -3000,20 +3003,20 @@
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
       <c r="E35" s="64"/>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="85"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="100"/>
       <c r="R35" s="69"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3064,57 +3067,57 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="93">
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="86">
         <f>AVERAGE(F36:Q36)</f>
         <v>48.958333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="83" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="97"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="87"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="87"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
       <c r="G40" s="13" t="s">
         <v>9</v>
       </c>
@@ -3144,12 +3147,12 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="87"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="108"/>
       <c r="G41" s="3">
         <v>255</v>
       </c>
@@ -3180,12 +3183,12 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="65"/>
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
@@ -3197,74 +3200,74 @@
       <c r="O42" s="66"/>
     </row>
     <row r="43" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="83" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="108" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
       <c r="O43" s="82"/>
     </row>
     <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="104" t="s">
+      <c r="A44" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="107" t="s">
+      <c r="F44" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="104" t="s">
+      <c r="H44" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="105" t="s">
+      <c r="I44" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="104" t="s">
+      <c r="J44" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="105" t="s">
+      <c r="K44" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="104" t="s">
+      <c r="L44" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="105" t="s">
+      <c r="M44" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="112" t="s">
+      <c r="N44" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="109" t="s">
+      <c r="O44" s="96" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3535,16 +3538,16 @@
       <c r="D51" s="64"/>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
-      <c r="G51" s="83" t="s">
+      <c r="G51" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="85"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="100"/>
       <c r="O51" s="69"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3555,35 +3558,35 @@
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
       <c r="G52" s="27">
-        <f>AVERAGE(G45:G49)/2*100</f>
+        <f t="shared" ref="G52:N52" si="7">AVERAGE(G45:G49)/2*100</f>
         <v>40</v>
       </c>
       <c r="H52" s="27">
-        <f>AVERAGE(H45:H49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="I52" s="27">
-        <f>AVERAGE(I45:I49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J52" s="27">
-        <f>AVERAGE(J45:J49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="K52" s="27">
-        <f>AVERAGE(K45:K49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="L52" s="27">
-        <f>AVERAGE(L45:L49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="M52" s="27">
-        <f>AVERAGE(M45:M49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="N52" s="44">
-        <f>AVERAGE(N45:N49)/2*100</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="O52" s="45">
@@ -3592,38 +3595,901 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="93">
+      <c r="A53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="86">
         <f>AVERAGE(G52:N52)</f>
         <v>53.75</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O54" s="28"/>
       <c r="R54"/>
     </row>
+    <row r="55" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="87"/>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="106"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="106"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="3">
+        <v>255</v>
+      </c>
+      <c r="H57" s="5">
+        <v>21</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13</v>
+      </c>
+      <c r="J57" s="5">
+        <v>38</v>
+      </c>
+      <c r="K57" s="3">
+        <v>54</v>
+      </c>
+      <c r="L57" s="5">
+        <v>21</v>
+      </c>
+      <c r="M57" s="3">
+        <v>66</v>
+      </c>
+      <c r="N57" s="5">
+        <v>67</v>
+      </c>
+      <c r="O57" s="45">
+        <f>SUM(G57:N57)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="109"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+    </row>
+    <row r="59" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="100"/>
+      <c r="F59" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="82"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8">
+        <v>250</v>
+      </c>
+      <c r="E61" s="9">
+        <v>535</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="21">
+        <v>1</v>
+      </c>
+      <c r="O61" s="25">
+        <f>(SUM(G61:N61))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="8">
+        <v>250</v>
+      </c>
+      <c r="E62" s="9">
+        <v>535</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2</v>
+      </c>
+      <c r="N62" s="21">
+        <v>0</v>
+      </c>
+      <c r="O62" s="25">
+        <f>(SUM(G62:N62))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="8">
+        <v>250</v>
+      </c>
+      <c r="E63" s="9">
+        <v>535</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2</v>
+      </c>
+      <c r="N63" s="21">
+        <v>0</v>
+      </c>
+      <c r="O63" s="25">
+        <f>(SUM(G63:N63))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="45">
+        <f>AVERAGE(O61:O63)</f>
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="69"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="27">
+        <f>AVERAGE(G61:G63)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="H66" s="27">
+        <f>AVERAGE(H61:H63)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="I66" s="27">
+        <f>AVERAGE(I61:I63)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="J66" s="27">
+        <f>AVERAGE(J61:J63)/2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K66" s="27">
+        <f>AVERAGE(K61:K63)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="L66" s="27">
+        <f>AVERAGE(L61:L63)/2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M66" s="27">
+        <f>AVERAGE(M61:M63)/2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="N66" s="44">
+        <f>AVERAGE(N61:N63)/2*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="O66" s="45">
+        <f>SUM(G66:N66)</f>
+        <v>433.33333333333331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="83"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
+      <c r="N67" s="85"/>
+      <c r="O67" s="86">
+        <f>AVERAGE(G66:N66)</f>
+        <v>54.166666666666664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="87"/>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="106"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="106"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="3">
+        <v>255</v>
+      </c>
+      <c r="H71" s="5">
+        <v>21</v>
+      </c>
+      <c r="I71" s="3">
+        <v>13</v>
+      </c>
+      <c r="J71" s="5">
+        <v>38</v>
+      </c>
+      <c r="K71" s="3">
+        <v>54</v>
+      </c>
+      <c r="L71" s="5">
+        <v>21</v>
+      </c>
+      <c r="M71" s="3">
+        <v>66</v>
+      </c>
+      <c r="N71" s="5">
+        <v>67</v>
+      </c>
+      <c r="O71" s="45">
+        <f>SUM(G71:N71)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="109"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="66"/>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="99"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="100"/>
+      <c r="F73" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="82"/>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N74" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="8">
+        <v>250</v>
+      </c>
+      <c r="E75" s="9">
+        <v>535</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="21">
+        <v>1</v>
+      </c>
+      <c r="O75" s="25">
+        <f>(SUM(G75:N75))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="8">
+        <v>250</v>
+      </c>
+      <c r="E76" s="9">
+        <v>535</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>2</v>
+      </c>
+      <c r="N76" s="21">
+        <v>1</v>
+      </c>
+      <c r="O76" s="25">
+        <f>(SUM(G76:N76))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="8">
+        <v>250</v>
+      </c>
+      <c r="E77" s="9">
+        <v>535</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2</v>
+      </c>
+      <c r="N77" s="21">
+        <v>0</v>
+      </c>
+      <c r="O77" s="25">
+        <f>(SUM(G77:N77))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="45">
+        <f>AVERAGE(O75:O77)</f>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="100"/>
+      <c r="O79" s="69"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="27">
+        <f>AVERAGE(G75:G77)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="H80" s="27">
+        <f>AVERAGE(H75:H77)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="I80" s="27">
+        <f>AVERAGE(I75:I77)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="J80" s="27">
+        <f>AVERAGE(J75:J77)/2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="K80" s="27">
+        <f>AVERAGE(K75:K77)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="L80" s="27">
+        <f>AVERAGE(L75:L77)/2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M80" s="27">
+        <f>AVERAGE(M75:M77)/2*100</f>
+        <v>100</v>
+      </c>
+      <c r="N80" s="44">
+        <f>AVERAGE(N75:N77)/2*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="O80" s="45">
+        <f>SUM(G80:N80)</f>
+        <v>483.33333333333331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="83"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="86">
+        <f>AVERAGE(G80:N80)</f>
+        <v>60.416666666666664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="A39:F42"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
+  <mergeCells count="30">
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="G65:N65"/>
+    <mergeCell ref="A69:F72"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="A55:F58"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:N59"/>
     <mergeCell ref="F20:Q20"/>
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="A20:E23"/>
@@ -3635,10 +4501,17 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="A39:F42"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F7:Q14 G45:N49">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3650,7 +4523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R14">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3662,7 +4535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:Q17">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3674,7 +4547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G33 O26:Q33 M26:M33 I26:J33">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3686,7 +4559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26:R33">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3698,7 +4571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:Q36">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3710,7 +4583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:N52">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3722,7 +4595,79 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:O49">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61:N63">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:N66">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61:O63">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75:N77">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:N80">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75:O77">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\ffn\m2\thesis\nf_reqextractor\git\nf_reqextractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A5CC0-5231-4DCC-B7D2-61A81313F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4964967-818E-40D5-BDA0-4CCC459E2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EC085558-F660-44D9-8D61-E2A64C91A3B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="54">
   <si>
     <t>loss</t>
   </si>
@@ -193,6 +193,12 @@
   <si>
     <t>main_v0_1_1 (SYNTAX)</t>
   </si>
+  <si>
+    <t>main_v0_1_1 (SENTENCE) sur Bis</t>
+  </si>
+  <si>
+    <t>main_v0_1_1 (SYNTAX) sur Bis</t>
+  </si>
 </sst>
 </file>
 
@@ -1175,38 +1181,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE16F68-CDB6-4331-8858-0654CB9651F9}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,13 +1557,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="98" t="s">
         <v>43</v>
       </c>
@@ -1575,11 +1581,11 @@
       <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1621,11 +1627,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="3">
         <v>255</v>
       </c>
@@ -1668,11 +1674,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="65"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -2354,13 +2360,13 @@
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
       <c r="F20" s="98" t="s">
         <v>5</v>
       </c>
@@ -2378,11 +2384,11 @@
       <c r="R20" s="87"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="13" t="s">
         <v>9</v>
       </c>
@@ -2416,11 +2422,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="3">
         <v>255</v>
       </c>
@@ -2455,11 +2461,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="65"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
@@ -3091,14 +3097,14 @@
     </row>
     <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="98" t="s">
         <v>5</v>
       </c>
@@ -3112,12 +3118,12 @@
       <c r="O39" s="87"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="13" t="s">
         <v>9</v>
       </c>
@@ -3147,12 +3153,12 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="108"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="106"/>
       <c r="G41" s="3">
         <v>255</v>
       </c>
@@ -3183,12 +3189,12 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
       <c r="G42" s="65"/>
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
@@ -3212,16 +3218,16 @@
       <c r="F43" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="101" t="s">
+      <c r="G43" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
       <c r="O43" s="82"/>
     </row>
     <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3619,14 +3625,14 @@
       <c r="R54"/>
     </row>
     <row r="55" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="105"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="103"/>
       <c r="G55" s="98" t="s">
         <v>5</v>
       </c>
@@ -3640,12 +3646,12 @@
       <c r="O55" s="87"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="106"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="13" t="s">
         <v>9</v>
       </c>
@@ -3675,12 +3681,12 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="106"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="108"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="106"/>
       <c r="G57" s="3">
         <v>255</v>
       </c>
@@ -3711,12 +3717,12 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="111"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="109"/>
       <c r="G58" s="65"/>
       <c r="H58" s="66"/>
       <c r="I58" s="66"/>
@@ -3740,16 +3746,16 @@
       <c r="F59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="101" t="s">
+      <c r="G59" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="102"/>
-      <c r="K59" s="102"/>
-      <c r="L59" s="102"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="102"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="111"/>
       <c r="O59" s="82"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3990,35 +3996,35 @@
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
       <c r="G66" s="27">
-        <f>AVERAGE(G61:G63)/2*100</f>
+        <f t="shared" ref="G66:N66" si="8">AVERAGE(G61:G63)/2*100</f>
         <v>50</v>
       </c>
       <c r="H66" s="27">
-        <f>AVERAGE(H61:H63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="I66" s="27">
-        <f>AVERAGE(I61:I63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="J66" s="27">
-        <f>AVERAGE(J61:J63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>66.666666666666657</v>
       </c>
       <c r="K66" s="27">
-        <f>AVERAGE(K61:K63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="L66" s="27">
-        <f>AVERAGE(L61:L63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>66.666666666666657</v>
       </c>
       <c r="M66" s="27">
-        <f>AVERAGE(M61:M63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>83.333333333333343</v>
       </c>
       <c r="N66" s="44">
-        <f>AVERAGE(N61:N63)/2*100</f>
+        <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
       <c r="O66" s="45">
@@ -4048,14 +4054,14 @@
     </row>
     <row r="68" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="105"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="103"/>
       <c r="G69" s="98" t="s">
         <v>5</v>
       </c>
@@ -4069,12 +4075,12 @@
       <c r="O69" s="87"/>
     </row>
     <row r="70" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="106"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="108"/>
+      <c r="A70" s="104"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="106"/>
       <c r="G70" s="13" t="s">
         <v>9</v>
       </c>
@@ -4104,12 +4110,12 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="106"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="108"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="106"/>
       <c r="G71" s="3">
         <v>255</v>
       </c>
@@ -4140,12 +4146,12 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="109"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="111"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="109"/>
       <c r="G72" s="65"/>
       <c r="H72" s="66"/>
       <c r="I72" s="66"/>
@@ -4169,16 +4175,16 @@
       <c r="F73" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G73" s="101" t="s">
+      <c r="G73" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="102"/>
-      <c r="I73" s="102"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="111"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="111"/>
+      <c r="M73" s="111"/>
+      <c r="N73" s="111"/>
       <c r="O73" s="82"/>
     </row>
     <row r="74" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4419,35 +4425,35 @@
       <c r="E80" s="64"/>
       <c r="F80" s="64"/>
       <c r="G80" s="27">
-        <f>AVERAGE(G75:G77)/2*100</f>
+        <f t="shared" ref="G80:N80" si="9">AVERAGE(G75:G77)/2*100</f>
         <v>50</v>
       </c>
       <c r="H80" s="27">
-        <f>AVERAGE(H75:H77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="I80" s="27">
-        <f>AVERAGE(I75:I77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="J80" s="27">
-        <f>AVERAGE(J75:J77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>83.333333333333343</v>
       </c>
       <c r="K80" s="27">
-        <f>AVERAGE(K75:K77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="L80" s="27">
-        <f>AVERAGE(L75:L77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>66.666666666666657</v>
       </c>
       <c r="M80" s="27">
-        <f>AVERAGE(M75:M77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="N80" s="44">
-        <f>AVERAGE(N75:N77)/2*100</f>
+        <f t="shared" si="9"/>
         <v>33.333333333333329</v>
       </c>
       <c r="O80" s="45">
@@ -4475,9 +4481,675 @@
         <v>60.416666666666664</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="99"/>
+      <c r="N83" s="100"/>
+      <c r="O83" s="87"/>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="104"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="104"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="106"/>
+      <c r="G85" s="3">
+        <v>303</v>
+      </c>
+      <c r="H85" s="5">
+        <v>90</v>
+      </c>
+      <c r="I85" s="3">
+        <v>33</v>
+      </c>
+      <c r="J85" s="5">
+        <v>123</v>
+      </c>
+      <c r="K85" s="3">
+        <v>142</v>
+      </c>
+      <c r="L85" s="5">
+        <v>89</v>
+      </c>
+      <c r="M85" s="3">
+        <v>135</v>
+      </c>
+      <c r="N85" s="5">
+        <v>164</v>
+      </c>
+      <c r="O85" s="45">
+        <f>SUM(G85:N85)</f>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="107"/>
+      <c r="B86" s="108"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="99"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="100"/>
+      <c r="F87" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="111"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="111"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="111"/>
+      <c r="M87" s="111"/>
+      <c r="N87" s="111"/>
+      <c r="O87" s="82"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M88" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N88" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="8">
+        <v>200</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1188</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="21">
+        <v>1</v>
+      </c>
+      <c r="O89" s="25">
+        <f>(SUM(G89:N89))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="45">
+        <f>AVERAGE(O89:O89)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="99"/>
+      <c r="I91" s="99"/>
+      <c r="J91" s="99"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="99"/>
+      <c r="M91" s="99"/>
+      <c r="N91" s="100"/>
+      <c r="O91" s="69"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="64"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="27">
+        <f t="shared" ref="G92:N92" si="10">AVERAGE(G89:G89)/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="H92" s="27">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="I92" s="27">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="J92" s="27">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="K92" s="27">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L92" s="27">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="M92" s="27">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N92" s="44">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="O92" s="45">
+        <f>SUM(G92:N92)</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="83"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="86">
+        <f>AVERAGE(G92:N92)</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="102"/>
+      <c r="C95" s="102"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="100"/>
+      <c r="O95" s="87"/>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="104"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="104"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="3">
+        <v>303</v>
+      </c>
+      <c r="H97" s="5">
+        <v>90</v>
+      </c>
+      <c r="I97" s="3">
+        <v>33</v>
+      </c>
+      <c r="J97" s="5">
+        <v>123</v>
+      </c>
+      <c r="K97" s="3">
+        <v>142</v>
+      </c>
+      <c r="L97" s="5">
+        <v>89</v>
+      </c>
+      <c r="M97" s="3">
+        <v>135</v>
+      </c>
+      <c r="N97" s="5">
+        <v>164</v>
+      </c>
+      <c r="O97" s="45">
+        <f>SUM(G97:N97)</f>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="107"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="66"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="66"/>
+    </row>
+    <row r="99" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="99"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" s="100"/>
+      <c r="F99" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="82"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M100" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N100" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="8">
+        <v>275</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1188</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>2</v>
+      </c>
+      <c r="K101" s="1">
+        <v>2</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1">
+        <v>2</v>
+      </c>
+      <c r="N101" s="21">
+        <v>1</v>
+      </c>
+      <c r="O101" s="25">
+        <f>(SUM(G101:N101))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="45">
+        <f>AVERAGE(O101:O101)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="99"/>
+      <c r="K103" s="99"/>
+      <c r="L103" s="99"/>
+      <c r="M103" s="99"/>
+      <c r="N103" s="100"/>
+      <c r="O103" s="69"/>
+    </row>
+    <row r="104" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="27">
+        <f t="shared" ref="G104:N104" si="11">AVERAGE(G101:G101)/2*100</f>
+        <v>100</v>
+      </c>
+      <c r="H104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="J104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="M104" s="27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="N104" s="44">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="O104" s="45">
+        <f>SUM(G104:N104)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="83"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="85"/>
+      <c r="N105" s="85"/>
+      <c r="O105" s="86">
+        <f>AVERAGE(G104:N104)</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="42">
     <mergeCell ref="G79:N79"/>
     <mergeCell ref="G65:N65"/>
     <mergeCell ref="A69:F72"/>
@@ -4508,10 +5180,22 @@
     <mergeCell ref="F35:Q35"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A83:F86"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G103:N103"/>
+    <mergeCell ref="G91:N91"/>
+    <mergeCell ref="A95:F98"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:N99"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F7:Q14 G45:N49">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4523,7 +5207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R14">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4535,7 +5219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:Q17">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4547,7 +5231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G33 O26:Q33 M26:M33 I26:J33">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4559,7 +5243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26:R33">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4571,7 +5255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:Q36">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4583,7 +5267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:N52">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4595,7 +5279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:O49">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4607,6 +5291,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:N63">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:N66">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61:O63">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75:N77">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:N80">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75:O77">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:N89">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4618,7 +5374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:N66">
+  <conditionalFormatting sqref="G92:N92">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4630,8 +5386,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:O63">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="O89">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4642,7 +5398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:N77">
+  <conditionalFormatting sqref="G101:N101">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4654,7 +5410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:N80">
+  <conditionalFormatting sqref="G104:N104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4666,7 +5422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O75:O77">
+  <conditionalFormatting sqref="O101">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
